--- a/backend/inventoryreport.xlsx
+++ b/backend/inventoryreport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,7 +496,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2025-08-29 00:54:15</t>
+          <t>2025-08-29 01:10:18</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -536,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2025-08-28 21:54:15</t>
+          <t>2025-08-28 22:10:18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2025-08-28 16:54:15</t>
+          <t>2025-08-28 17:10:18</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2025-08-29 06:54:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2025-08-29 06:54:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2025-08-29 06:54:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -718,7 +718,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PALLET-INCOMPLETE-100D</t>
+          <t>PALLET-STORED-100D</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -728,7 +728,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>01-A04-A</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -736,7 +736,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2025-08-29 04:54:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -751,384 +751,384 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>RECEIVING</t>
+          <t>STORED</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PALLET-OVERCAP-001</t>
+          <t>PALLET-STORED-100E</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Overcapacity Test Alpha</t>
+          <t>Product Delta Complete</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RECV-03</t>
+          <t>01-A05-A</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2025-08-29 10:54:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SKU-OVERCAP-001</t>
+          <t>SKU-DELTA-100</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>LOT-2024-OVER-001</t>
+          <t>LOT-2024-100</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>RECEIVING</t>
+          <t>STORED</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PALLET-OVERCAP-002</t>
+          <t>PALLET-STORED-100F</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Overcapacity Test Beta</t>
+          <t>Product Delta Complete</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>RECV-03</t>
+          <t>01-A06-A</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2025-08-29 11:54:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>SKU-OVERCAP-002</t>
+          <t>SKU-DELTA-100</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>LOT-2024-OVER-002</t>
+          <t>LOT-2024-100</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>RECEIVING</t>
+          <t>STORED</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PALLET-DOCK-OVER-001</t>
+          <t>PALLET-STORED-100G</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dock Overcap Alpha</t>
+          <t>Product Delta Complete</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>DOCK-01</t>
+          <t>01-A07-A</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2025-08-29 12:24:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>SKU-DOCK-001</t>
+          <t>SKU-DELTA-100</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>LOT-2024-DOCK-001</t>
+          <t>LOT-2024-100</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>SHIPPING</t>
+          <t>STORED</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>PALLET-DOCK-OVER-002</t>
+          <t>PALLET-STORED-100H</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Dock Overcap Beta</t>
+          <t>Product Delta Complete</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DOCK-01</t>
+          <t>01-A08-A</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2025-08-29 12:29:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>SKU-DOCK-002</t>
+          <t>SKU-DELTA-100</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>LOT-2024-DOCK-002</t>
+          <t>LOT-2024-100</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>SHIPPING</t>
+          <t>STORED</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PALLET-DOCK-OVER-003</t>
+          <t>PALLET-STORED-100I</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Dock Overcap Gamma</t>
+          <t>Product Delta Complete</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DOCK-01</t>
+          <t>01-A09-A</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2025-08-29 12:34:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>SKU-DOCK-003</t>
+          <t>SKU-DELTA-100</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>LOT-2024-DOCK-003</t>
+          <t>LOT-2024-100</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>SHIPPING</t>
+          <t>STORED</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PALLET-INVALID-001</t>
+          <t>PALLET-INCOMPLETE-100J</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Invalid Location Test</t>
+          <t>Product Delta Complete</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>INVALID-LOCATION-X99</t>
+          <t>RECV-01</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2025-08-29 09:54:15</t>
+          <t>2025-08-29 05:10:18</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>SKU-INVALID-001</t>
+          <t>SKU-DELTA-100</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>LOT-2024-INVALID-001</t>
+          <t>LOT-2024-100</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>RECEIVING</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PALLET-INVALID-002</t>
+          <t>PALLET-OVERCAP-001</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Another Invalid Test</t>
+          <t>Overcapacity Test Alpha</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NONEXISTENT-LOC</t>
+          <t>RECV-03</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2025-08-29 11:54:15</t>
+          <t>2025-08-29 11:10:18</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>SKU-INVALID-002</t>
+          <t>SKU-OVERCAP-001</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>LOT-2024-INVALID-002</t>
+          <t>LOT-2024-OVER-001</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>UNKNOWN</t>
+          <t>RECEIVING</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PALLET-AISLE-STUCK-001</t>
+          <t>PALLET-OVERCAP-002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Aisle Stuck Alpha</t>
+          <t>Overcapacity Test Beta</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>AISLE-01</t>
+          <t>RECV-03</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2025-08-29 06:54:15</t>
+          <t>2025-08-29 12:10:18</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>SKU-AISLE-001</t>
+          <t>SKU-OVERCAP-002</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LOT-2024-AISLE-001</t>
+          <t>LOT-2024-OVER-002</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>TRANSITIONAL</t>
+          <t>RECEIVING</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PALLET-AISLE-STUCK-002</t>
+          <t>PALLET-DOCK-OVER-001</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Aisle Stuck Beta</t>
+          <t>Dock Overcap Alpha</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>AISLE-02</t>
+          <t>DOCK-01</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2025-08-29 04:54:15</t>
+          <t>2025-08-29 12:40:18</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>SKU-AISLE-002</t>
+          <t>SKU-DOCK-001</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LOT-2024-AISLE-002</t>
+          <t>LOT-2024-DOCK-001</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>TRANSITIONAL</t>
+          <t>SHIPPING</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PALLET-AISLE-STUCK-003</t>
+          <t>PALLET-DOCK-OVER-002</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Aisle Stuck Gamma</t>
+          <t>Dock Overcap Beta</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>AISLE-03</t>
+          <t>DOCK-01</t>
         </is>
       </c>
       <c r="D18" t="n">
@@ -1136,119 +1136,119 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-08-29 02:54:15</t>
+          <t>2025-08-29 12:45:18</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>SKU-AISLE-003</t>
+          <t>SKU-DOCK-002</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>LOT-2024-AISLE-003</t>
+          <t>LOT-2024-DOCK-002</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>TRANSITIONAL</t>
+          <t>SHIPPING</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>PALLET-COLD-VIOLATION-001</t>
+          <t>PALLET-DOCK-OVER-003</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FROZEN Ice Cream Premium</t>
+          <t>Dock Overcap Gamma</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>STAGE-01</t>
+          <t>DOCK-01</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-08-29 11:54:15</t>
+          <t>2025-08-29 12:50:18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>SKU-FROZEN-001</t>
+          <t>SKU-DOCK-003</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>LOT-2024-FROZEN-001</t>
+          <t>LOT-2024-DOCK-003</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>STAGING</t>
+          <t>SHIPPING</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>PALLET-COLD-VIOLATION-002</t>
+          <t>PALLET-INVALID-001</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>REFRIGERATED Dairy Products</t>
+          <t>Invalid Location Test</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AISLE-04</t>
+          <t>INVALID-LOCATION-X99</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-08-29 12:09:15</t>
+          <t>2025-08-29 10:10:18</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>SKU-REFRIGERATED-001</t>
+          <t>SKU-INVALID-001</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>LOT-2024-REFRIG-001</t>
+          <t>LOT-2024-INVALID-001</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>TRANSITIONAL</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PALLET-NORMAL-001</t>
+          <t>PALLET-INVALID-002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Normal Product Alpha</t>
+          <t>Another Invalid Test</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>RECV-01</t>
+          <t>NONEXISTENT-LOC</t>
         </is>
       </c>
       <c r="D21" t="n">
@@ -1256,39 +1256,39 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-08-29 10:54:15</t>
+          <t>2025-08-29 12:10:18</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>SKU-NORMAL-001</t>
+          <t>SKU-INVALID-002</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>LOT-2024-NORMAL-001</t>
+          <t>LOT-2024-INVALID-002</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>RECEIVING</t>
+          <t>UNKNOWN</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>PALLET-NORMAL-002</t>
+          <t>PALLET-AISLE-STUCK-001</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Normal Product Beta</t>
+          <t>Aisle Stuck Alpha</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>STAGE-02</t>
+          <t>AISLE-01</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -1296,140 +1296,380 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-08-29 12:24:15</t>
+          <t>2025-08-29 07:10:18</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>SKU-NORMAL-002</t>
+          <t>SKU-AISLE-001</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>LOT-2024-NORMAL-002</t>
+          <t>LOT-2024-AISLE-001</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>STAGING</t>
+          <t>TRANSITIONAL</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>PALLET-NORMAL-003</t>
+          <t>PALLET-AISLE-STUCK-002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Normal Product Gamma</t>
+          <t>Aisle Stuck Beta</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>DOCK-02</t>
+          <t>AISLE-02</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-08-29 12:39:15</t>
+          <t>2025-08-29 05:10:18</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>SKU-NORMAL-003</t>
+          <t>SKU-AISLE-002</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>LOT-2024-NORMAL-003</t>
+          <t>LOT-2024-AISLE-002</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SHIPPING</t>
+          <t>TRANSITIONAL</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>PALLET-STORED-001</t>
+          <t>PALLET-AISLE-STUCK-003</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Stored Product Alpha</t>
+          <t>Aisle Stuck Gamma</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>01-A01-B</t>
+          <t>AISLE-03</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-08-29 11:54:15</t>
+          <t>2025-08-29 03:10:18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>SKU-STORED-001</t>
+          <t>SKU-AISLE-003</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>LOT-2024-STORED-001</t>
+          <t>LOT-2024-AISLE-003</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>STORED</t>
+          <t>TRANSITIONAL</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>PALLET-COLD-VIOLATION-001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>FROZEN Ice Cream Premium</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>STAGE-01</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2025-08-29 12:10:18</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>SKU-FROZEN-001</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>LOT-2024-FROZEN-001</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>STAGING</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>PALLET-COLD-VIOLATION-002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>REFRIGERATED Dairy Products</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>AISLE-04</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>6</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2025-08-29 12:25:18</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>SKU-REFRIGERATED-001</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>LOT-2024-REFRIG-001</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>TRANSITIONAL</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>PALLET-NORMAL-001</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Normal Product Alpha</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>RECV-01</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:10:18</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>SKU-NORMAL-001</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>LOT-2024-NORMAL-001</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>RECEIVING</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PALLET-NORMAL-002</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Normal Product Beta</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>STAGE-02</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2025-08-29 12:40:18</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>SKU-NORMAL-002</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>LOT-2024-NORMAL-002</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>STAGING</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>PALLET-NORMAL-003</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Normal Product Gamma</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DOCK-02</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2025-08-29 12:55:18</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>SKU-NORMAL-003</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>LOT-2024-NORMAL-003</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>SHIPPING</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>PALLET-STORED-001</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Stored Product Alpha</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>01-A01-B</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>8</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2025-08-29 12:10:18</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>SKU-STORED-001</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>LOT-2024-STORED-001</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>STORED</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>PALLET-STORED-002</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B31" t="inlineStr">
         <is>
           <t>Stored Product Beta</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C31" t="inlineStr">
         <is>
           <t>01-B02-A</t>
         </is>
       </c>
-      <c r="D25" t="n">
+      <c r="D31" t="n">
         <v>6</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2025-08-29 10:54:15</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2025-08-29 11:10:18</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
         <is>
           <t>SKU-STORED-002</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>LOT-2024-STORED-002</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>STORED</t>
         </is>
